--- a/File_Import_Python.xlsx
+++ b/File_Import_Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mipu_10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mipu_10\Documents\GitHub\ROI_computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B066644-39CA-4587-BF39-230A331409BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E10D966-F1E3-4ACE-A941-2DF9C610BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C0C53709-DEBB-4369-BCA1-9269B9C3EAA1}"/>
   </bookViews>
@@ -656,15 +656,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748B4BDC-A07E-4A23-A2F0-0E1C0608657A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7265625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -927,10 +927,13 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1090,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9EC38-6B41-44C1-83A7-FDEE4EFBF19C}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1780,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="T2" sqref="T2:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
